--- a/log.xlsx
+++ b/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Gomoku-AI-Agent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED220A4A-F00A-4969-836C-DB4A6D594F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DF3D82-2249-41D1-BEC0-3C38D372A101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{531EA496-7081-49BD-B3E6-EDBBBEAE73C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>Winner</t>
   </si>
@@ -44,9 +44,6 @@
     <t>SZv1</t>
   </si>
   <si>
-    <t>Mistral</t>
-  </si>
-  <si>
     <t>P1 Win</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>current best we have:</t>
+  </si>
+  <si>
+    <t>SZv3</t>
   </si>
 </sst>
 </file>
@@ -124,10 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD62B05-A045-48A7-88C7-8AB4465D879C}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,28 +480,28 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -507,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <f>SUM(D2:F2)</f>
@@ -523,21 +525,21 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C7" si="0">SUM(D3:F3)</f>
+        <f t="shared" ref="C3:C11" si="0">SUM(D3:F3)</f>
         <v>10</v>
       </c>
       <c r="D3" s="1">
@@ -558,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -579,7 +581,7 @@
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -598,15 +600,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -622,15 +624,15 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -646,7 +648,103 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
